--- a/test-suite/uam/src/main/resources/testdata/devicedata.xlsx
+++ b/test-suite/uam/src/main/resources/testdata/devicedata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9828237B-C08E-4317-B36D-2993D7B17DBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C42FF6-ED6A-4265-88AF-3F1042EFE651}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
